--- a/resources/generated_datasets/workflow_dataset/manifest.xlsx
+++ b/resources/generated_datasets/workflow_dataset/manifest.xlsx
@@ -125,10 +125,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-8727576219976063683" xfId="1" hidden="0"/>
-    <cellStyle name="-2142762556742437147" xfId="2" hidden="0"/>
-    <cellStyle name="-2080003078183140393" xfId="3" hidden="0"/>
-    <cellStyle name="-8884656256345148264" xfId="4" hidden="0"/>
+    <cellStyle name="-1618126406116665763" xfId="1" hidden="0"/>
+    <cellStyle name="-5173157957428491417" xfId="2" hidden="0"/>
+    <cellStyle name="5730267006370813657" xfId="3" hidden="0"/>
+    <cellStyle name="-4815604638059166896" xfId="4" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
